--- a/pages/Aplicativo/Reportes/Verificador_General.xlsx
+++ b/pages/Aplicativo/Reportes/Verificador_General.xlsx
@@ -468,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,7 +479,7 @@
     <col width="22.8" customWidth="1" min="1" max="1"/>
     <col width="9.6" customWidth="1" min="2" max="2"/>
     <col width="15.6" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="15.6" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>45321.03957944609</v>
+        <v>45343.86632855937</v>
       </c>
     </row>
     <row r="9"/>
@@ -525,7 +525,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CGENO</t>
+          <t>CTRUJ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -540,249 +540,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sin hallazgos</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>MAN1C</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ACTIVA</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Sin errores</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Sin hallazgos</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>CYOPA</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ACTIVA</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sin errores</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Sin hallazgos</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MEDEC</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ACTIVA</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Sin errores</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Sin hallazgos</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ARGC</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ACTIVA</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Sin errores</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Sin hallazgos</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>FLO2</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ACTIVA</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Sin errores</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Sin hallazgos</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>GARC</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ACTIVA</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Sin errores</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Sin hallazgos</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>PTA</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>ACTIVA</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Sin errores</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Sin hallazgos</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>TABC</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>ACTIVA</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Sin errores</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Sin hallazgos</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>TAM</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>ACTIVA</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Sin errores</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Sin hallazgos</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>YPLC</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ACTIVA</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Sin errores</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Sin hallazgos</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>SCLC</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>ACTIVA</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Sin errores</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Sin hallazgos</t>
+          <t>Hallazgo 19</t>
         </is>
       </c>
     </row>
